--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value79.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value79.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.467035676679042</v>
+        <v>4.053392887115479</v>
       </c>
       <c r="B1">
-        <v>1.492157615737032</v>
+        <v>4.300155162811279</v>
       </c>
       <c r="C1">
-        <v>1.613264858660987</v>
+        <v>1.065963387489319</v>
       </c>
       <c r="D1">
-        <v>2.272797557377663</v>
+        <v>0.2835461795330048</v>
       </c>
       <c r="E1">
-        <v>2.958109524161963</v>
+        <v>0.1828610301017761</v>
       </c>
     </row>
   </sheetData>
